--- a/data/pca/factorExposure/factorExposure_2009-07-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01658425628875317</v>
+        <v>0.01643554537057828</v>
       </c>
       <c r="C2">
-        <v>0.001266876498487745</v>
+        <v>-0.0008601114986403457</v>
       </c>
       <c r="D2">
-        <v>0.008223371630508115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009126719258945534</v>
+      </c>
+      <c r="E2">
+        <v>0.001064709078560438</v>
+      </c>
+      <c r="F2">
+        <v>0.01262383046402398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0909646589851902</v>
+        <v>0.09170424798245833</v>
       </c>
       <c r="C4">
-        <v>0.0197584167210274</v>
+        <v>-0.01439994192646243</v>
       </c>
       <c r="D4">
-        <v>0.07297297808219946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08316399311289835</v>
+      </c>
+      <c r="E4">
+        <v>0.02827022977236425</v>
+      </c>
+      <c r="F4">
+        <v>-0.03316112918429167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1516581929725862</v>
+        <v>0.1612410978122036</v>
       </c>
       <c r="C6">
-        <v>0.02873520099586988</v>
+        <v>-0.02781319274359459</v>
       </c>
       <c r="D6">
-        <v>-0.03137603916140718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02651830944965581</v>
+      </c>
+      <c r="E6">
+        <v>0.00951369521435691</v>
+      </c>
+      <c r="F6">
+        <v>-0.04226650069669972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06184588584534285</v>
+        <v>0.06275125809818399</v>
       </c>
       <c r="C7">
-        <v>0.002228051836904169</v>
+        <v>0.001670867687958117</v>
       </c>
       <c r="D7">
-        <v>0.04421553995937633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.052451524149618</v>
+      </c>
+      <c r="E7">
+        <v>0.01310829849308143</v>
+      </c>
+      <c r="F7">
+        <v>-0.04908737557487514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06268129253475793</v>
+        <v>0.05809507620450342</v>
       </c>
       <c r="C8">
-        <v>-0.01070726433610629</v>
+        <v>0.01256853882278376</v>
       </c>
       <c r="D8">
-        <v>0.02694735795226669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03049324462115221</v>
+      </c>
+      <c r="E8">
+        <v>0.01688347131879487</v>
+      </c>
+      <c r="F8">
+        <v>0.02570327011782722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07086930461701797</v>
+        <v>0.07071911237652402</v>
       </c>
       <c r="C9">
-        <v>0.01651043820178525</v>
+        <v>-0.01028638814975225</v>
       </c>
       <c r="D9">
-        <v>0.07298021798775789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08624696941561959</v>
+      </c>
+      <c r="E9">
+        <v>0.02475710972800116</v>
+      </c>
+      <c r="F9">
+        <v>-0.04928769834837623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08574719192093234</v>
+        <v>0.08913770405117423</v>
       </c>
       <c r="C10">
-        <v>0.0139813365105559</v>
+        <v>-0.02123673549642961</v>
       </c>
       <c r="D10">
-        <v>-0.1654955582511559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1607184252437872</v>
+      </c>
+      <c r="E10">
+        <v>-0.03258815352102824</v>
+      </c>
+      <c r="F10">
+        <v>0.0572085775565365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09106289486807154</v>
+        <v>0.08788794801842521</v>
       </c>
       <c r="C11">
-        <v>0.0174450772080854</v>
+        <v>-0.01097734281017543</v>
       </c>
       <c r="D11">
-        <v>0.1038897181390145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1175098413100632</v>
+      </c>
+      <c r="E11">
+        <v>0.04744085800279385</v>
+      </c>
+      <c r="F11">
+        <v>-0.02232268134746323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09634464872566301</v>
+        <v>0.09062665515690307</v>
       </c>
       <c r="C12">
-        <v>0.01523925981201704</v>
+        <v>-0.008130781583196784</v>
       </c>
       <c r="D12">
-        <v>0.107037523021312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320881900875403</v>
+      </c>
+      <c r="E12">
+        <v>0.04677264572043677</v>
+      </c>
+      <c r="F12">
+        <v>-0.02943710339484747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04395328345912815</v>
+        <v>0.04350715385112505</v>
       </c>
       <c r="C13">
-        <v>0.005728987188072363</v>
+        <v>-0.002377540225087979</v>
       </c>
       <c r="D13">
-        <v>0.03337910322565656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05348211285182254</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003036657678484955</v>
+      </c>
+      <c r="F13">
+        <v>-0.003259349284605503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01854757914700319</v>
+        <v>0.0231500702280739</v>
       </c>
       <c r="C14">
-        <v>0.01485822919189435</v>
+        <v>-0.01368144890185254</v>
       </c>
       <c r="D14">
-        <v>0.02706897837775559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03327155838545973</v>
+      </c>
+      <c r="E14">
+        <v>0.01797919578817865</v>
+      </c>
+      <c r="F14">
+        <v>-0.01380786712146692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03348675120360851</v>
+        <v>0.03321428597832465</v>
       </c>
       <c r="C15">
-        <v>0.007431070465989213</v>
+        <v>-0.005141407642080348</v>
       </c>
       <c r="D15">
-        <v>0.03849460303075565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04623908942340372</v>
+      </c>
+      <c r="E15">
+        <v>0.00761892281791574</v>
+      </c>
+      <c r="F15">
+        <v>-0.0295779218814337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07563291934968151</v>
+        <v>0.07314152453237414</v>
       </c>
       <c r="C16">
-        <v>0.008020598374792265</v>
+        <v>-0.00132752607168079</v>
       </c>
       <c r="D16">
-        <v>0.1057831109971789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1283978928776423</v>
+      </c>
+      <c r="E16">
+        <v>0.06204863852462085</v>
+      </c>
+      <c r="F16">
+        <v>-0.02472747468963175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004090898915007662</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002465455632684466</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.00156959345641775</v>
+      </c>
+      <c r="E17">
+        <v>0.001116724814085718</v>
+      </c>
+      <c r="F17">
+        <v>0.002567620551925768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01813620840002634</v>
+        <v>0.03902524249215274</v>
       </c>
       <c r="C18">
-        <v>-0.003180229792930543</v>
+        <v>0.002916961636200606</v>
       </c>
       <c r="D18">
-        <v>0.0274872242226356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01547959759793677</v>
+      </c>
+      <c r="E18">
+        <v>-0.007821871421201828</v>
+      </c>
+      <c r="F18">
+        <v>0.008666887052130248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06396495133180304</v>
+        <v>0.06254901847456538</v>
       </c>
       <c r="C20">
-        <v>0.005820186048844767</v>
+        <v>-0.000740961983303613</v>
       </c>
       <c r="D20">
-        <v>0.06397812240935867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07850891710440876</v>
+      </c>
+      <c r="E20">
+        <v>0.05706907831980877</v>
+      </c>
+      <c r="F20">
+        <v>-0.03055753150165884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0383799609136652</v>
+        <v>0.04121953097879821</v>
       </c>
       <c r="C21">
-        <v>0.009572840195872376</v>
+        <v>-0.006532767380126599</v>
       </c>
       <c r="D21">
-        <v>0.03588115381221078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03761464753209823</v>
+      </c>
+      <c r="E21">
+        <v>-0.001550269427824465</v>
+      </c>
+      <c r="F21">
+        <v>0.02537572752661106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04207876566548158</v>
+        <v>0.04371903971921055</v>
       </c>
       <c r="C22">
-        <v>0.001780292374732126</v>
+        <v>-0.0009542857771065822</v>
       </c>
       <c r="D22">
-        <v>-0.003286066112038631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006370300334566803</v>
+      </c>
+      <c r="E22">
+        <v>0.03586077709413591</v>
+      </c>
+      <c r="F22">
+        <v>0.04897309965097152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04204159868777014</v>
+        <v>0.04369491172773798</v>
       </c>
       <c r="C23">
-        <v>0.001770038897320088</v>
+        <v>-0.0009454473783890578</v>
       </c>
       <c r="D23">
-        <v>-0.003263082306312927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006385042676219543</v>
+      </c>
+      <c r="E23">
+        <v>0.03604326527158484</v>
+      </c>
+      <c r="F23">
+        <v>0.04894425517490415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08220978423928861</v>
+        <v>0.07906496887461135</v>
       </c>
       <c r="C24">
-        <v>0.008289302352357255</v>
+        <v>-0.002010690707970221</v>
       </c>
       <c r="D24">
-        <v>0.1091721307974721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1206179176379271</v>
+      </c>
+      <c r="E24">
+        <v>0.04969133036726536</v>
+      </c>
+      <c r="F24">
+        <v>-0.02826849090744597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08752046083196513</v>
+        <v>0.08406119774257739</v>
       </c>
       <c r="C25">
-        <v>0.01092467828938723</v>
+        <v>-0.004661585616448311</v>
       </c>
       <c r="D25">
-        <v>0.09512093087923912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1098686728338275</v>
+      </c>
+      <c r="E25">
+        <v>0.03277319636877709</v>
+      </c>
+      <c r="F25">
+        <v>-0.0249424820333488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05784331119222746</v>
+        <v>0.05939318623692212</v>
       </c>
       <c r="C26">
-        <v>0.01752041700396459</v>
+        <v>-0.01457993671255303</v>
       </c>
       <c r="D26">
-        <v>0.02555094838886789</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04355993880708142</v>
+      </c>
+      <c r="E26">
+        <v>0.03011236683141253</v>
+      </c>
+      <c r="F26">
+        <v>0.007381515024251791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1332149865040835</v>
+        <v>0.1415475165735634</v>
       </c>
       <c r="C28">
-        <v>0.01289897735600392</v>
+        <v>-0.02274983473934155</v>
       </c>
       <c r="D28">
-        <v>-0.2704814309574583</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2609955092977891</v>
+      </c>
+      <c r="E28">
+        <v>-0.06842810140682483</v>
+      </c>
+      <c r="F28">
+        <v>-0.00518437142130712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0253318547581608</v>
+        <v>0.02859896002865979</v>
       </c>
       <c r="C29">
-        <v>0.009634819259060401</v>
+        <v>-0.008859788330469975</v>
       </c>
       <c r="D29">
-        <v>0.02523583251672343</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03110074368686977</v>
+      </c>
+      <c r="E29">
+        <v>0.01272059468655395</v>
+      </c>
+      <c r="F29">
+        <v>0.01213349008125075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06349367141811822</v>
+        <v>0.05844022401732709</v>
       </c>
       <c r="C30">
-        <v>0.009656054524516408</v>
+        <v>-0.002692657317504318</v>
       </c>
       <c r="D30">
-        <v>0.06933393049284503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08780818474406912</v>
+      </c>
+      <c r="E30">
+        <v>0.01386375500717936</v>
+      </c>
+      <c r="F30">
+        <v>-0.07890084485982361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05047280474721451</v>
+        <v>0.05103776955359843</v>
       </c>
       <c r="C31">
-        <v>0.01705542938387324</v>
+        <v>-0.01599348145159221</v>
       </c>
       <c r="D31">
-        <v>0.02230993420915403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02488994048370125</v>
+      </c>
+      <c r="E31">
+        <v>0.02859350425531891</v>
+      </c>
+      <c r="F31">
+        <v>0.0009529755554882523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04628992332075078</v>
+        <v>0.0512361828485567</v>
       </c>
       <c r="C32">
-        <v>0.002044076985356301</v>
+        <v>0.001594266819842553</v>
       </c>
       <c r="D32">
-        <v>0.02236934060491061</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03522021332349926</v>
+      </c>
+      <c r="E32">
+        <v>0.03332972036931217</v>
+      </c>
+      <c r="F32">
+        <v>-0.002909657108685452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09157214912585543</v>
+        <v>0.08926690899859617</v>
       </c>
       <c r="C33">
-        <v>0.01382288858663661</v>
+        <v>-0.006842724314849728</v>
       </c>
       <c r="D33">
-        <v>0.08254262471099473</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1034937909609965</v>
+      </c>
+      <c r="E33">
+        <v>0.04670664876081665</v>
+      </c>
+      <c r="F33">
+        <v>-0.04315387718229393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06897083877990259</v>
+        <v>0.06754639076820125</v>
       </c>
       <c r="C34">
-        <v>0.01567517580689384</v>
+        <v>-0.01020946163107041</v>
       </c>
       <c r="D34">
-        <v>0.09037875253091218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1093391806833314</v>
+      </c>
+      <c r="E34">
+        <v>0.03550968151660875</v>
+      </c>
+      <c r="F34">
+        <v>-0.03276607234491315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02425532403990283</v>
+        <v>0.02617693631242558</v>
       </c>
       <c r="C35">
-        <v>0.003071244250574375</v>
+        <v>-0.002937001605040759</v>
       </c>
       <c r="D35">
-        <v>0.006610059870712067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01182732565865145</v>
+      </c>
+      <c r="E35">
+        <v>0.01235832246633075</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008698189288941505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02596115367272058</v>
+        <v>0.02781559109051332</v>
       </c>
       <c r="C36">
-        <v>0.007751933680594738</v>
+        <v>-0.006894216796201082</v>
       </c>
       <c r="D36">
-        <v>0.03923608727137019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03937845040176968</v>
+      </c>
+      <c r="E36">
+        <v>0.01695107727232402</v>
+      </c>
+      <c r="F36">
+        <v>-0.01405411408027615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0007624167247250017</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006880476590949784</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002532952099664286</v>
+      </c>
+      <c r="E37">
+        <v>-3.356452826338432e-06</v>
+      </c>
+      <c r="F37">
+        <v>0.00167954906847006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1141570051830865</v>
+        <v>0.1027729176009959</v>
       </c>
       <c r="C39">
-        <v>0.0238929144907826</v>
+        <v>-0.01603528245878271</v>
       </c>
       <c r="D39">
-        <v>0.1433445963265312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1517634729993298</v>
+      </c>
+      <c r="E39">
+        <v>0.05973479692421828</v>
+      </c>
+      <c r="F39">
+        <v>-0.02119425041408457</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03817410059498506</v>
+        <v>0.04314235421018653</v>
       </c>
       <c r="C40">
-        <v>0.009244801236942305</v>
+        <v>-0.007473995696455539</v>
       </c>
       <c r="D40">
-        <v>0.01792891352561793</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03252502041874471</v>
+      </c>
+      <c r="E40">
+        <v>0.001562196497311205</v>
+      </c>
+      <c r="F40">
+        <v>0.015766266294748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02568063904308261</v>
+        <v>0.02803477158873304</v>
       </c>
       <c r="C41">
-        <v>0.007354832133216386</v>
+        <v>-0.006849993395490304</v>
       </c>
       <c r="D41">
-        <v>0.007972181366070894</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01082521574713299</v>
+      </c>
+      <c r="E41">
+        <v>0.0122921909184404</v>
+      </c>
+      <c r="F41">
+        <v>0.007493231590176582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0422741189565947</v>
+        <v>0.04049237616305826</v>
       </c>
       <c r="C43">
-        <v>0.008274438213563204</v>
+        <v>-0.00746656596387235</v>
       </c>
       <c r="D43">
-        <v>0.015343231102081</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01903404119095372</v>
+      </c>
+      <c r="E43">
+        <v>0.02541093795629261</v>
+      </c>
+      <c r="F43">
+        <v>0.01680046653161202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07065272175541629</v>
+        <v>0.0790039199876401</v>
       </c>
       <c r="C44">
-        <v>0.02552970880256478</v>
+        <v>-0.01938668178119578</v>
       </c>
       <c r="D44">
-        <v>0.08964791715058562</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09596893681823249</v>
+      </c>
+      <c r="E44">
+        <v>0.06197235277156551</v>
+      </c>
+      <c r="F44">
+        <v>-0.1665369336274463</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02197275184520854</v>
+        <v>0.02450796565405017</v>
       </c>
       <c r="C46">
-        <v>0.004169229553673656</v>
+        <v>-0.003639272229222412</v>
       </c>
       <c r="D46">
-        <v>0.006012845072787621</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01283910587648192</v>
+      </c>
+      <c r="E46">
+        <v>0.02674418228478836</v>
+      </c>
+      <c r="F46">
+        <v>0.004252889374708904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05253942275647815</v>
+        <v>0.0523740382911236</v>
       </c>
       <c r="C47">
-        <v>0.004756361339615713</v>
+        <v>-0.004100593166364304</v>
       </c>
       <c r="D47">
-        <v>0.009000810441003535</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01030401416387483</v>
+      </c>
+      <c r="E47">
+        <v>0.02246053751743562</v>
+      </c>
+      <c r="F47">
+        <v>0.0330283779542928</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04803240879381496</v>
+        <v>0.05063583698908702</v>
       </c>
       <c r="C48">
-        <v>0.00475005564434014</v>
+        <v>-0.002115061113606674</v>
       </c>
       <c r="D48">
-        <v>0.0449021058666827</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05032576719571236</v>
+      </c>
+      <c r="E48">
+        <v>-0.004741650780938321</v>
+      </c>
+      <c r="F48">
+        <v>-0.01272669511168707</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2026348244258127</v>
+        <v>0.2005233555454308</v>
       </c>
       <c r="C49">
-        <v>0.02206156870277094</v>
+        <v>-0.0196532968235606</v>
       </c>
       <c r="D49">
-        <v>-0.01542550566491096</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005330338291599715</v>
+      </c>
+      <c r="E49">
+        <v>0.03268289904268488</v>
+      </c>
+      <c r="F49">
+        <v>-0.04626268221440437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04944269415019009</v>
+        <v>0.05135684455137464</v>
       </c>
       <c r="C50">
-        <v>0.01309867020594407</v>
+        <v>-0.01172480896309373</v>
       </c>
       <c r="D50">
-        <v>0.02239565810356881</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02332175576397233</v>
+      </c>
+      <c r="E50">
+        <v>0.02952377602101145</v>
+      </c>
+      <c r="F50">
+        <v>-0.0100371445648866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1556784481230937</v>
+        <v>0.1494427322588149</v>
       </c>
       <c r="C52">
-        <v>0.020418154899483</v>
+        <v>-0.0184916598507634</v>
       </c>
       <c r="D52">
-        <v>0.04896807504743939</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04222466561864287</v>
+      </c>
+      <c r="E52">
+        <v>0.0222602945960742</v>
+      </c>
+      <c r="F52">
+        <v>-0.04367602003856876</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1735354130691255</v>
+        <v>0.1699093786726917</v>
       </c>
       <c r="C53">
-        <v>0.02054568362836198</v>
+        <v>-0.02106487889333021</v>
       </c>
       <c r="D53">
-        <v>0.01216993994923706</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005334065471640125</v>
+      </c>
+      <c r="E53">
+        <v>0.02982968897278458</v>
+      </c>
+      <c r="F53">
+        <v>-0.07573656944050988</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01706634864962552</v>
+        <v>0.02009093285042435</v>
       </c>
       <c r="C54">
-        <v>0.01238243056949685</v>
+        <v>-0.01100627884820311</v>
       </c>
       <c r="D54">
-        <v>0.02774597044977571</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.033992852645856</v>
+      </c>
+      <c r="E54">
+        <v>0.02113527072992803</v>
+      </c>
+      <c r="F54">
+        <v>0.0003695074515384225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1169049153794689</v>
+        <v>0.115999518413131</v>
       </c>
       <c r="C55">
-        <v>0.0184480249976087</v>
+        <v>-0.01853593313827707</v>
       </c>
       <c r="D55">
-        <v>0.01063283636680601</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008595705962879126</v>
+      </c>
+      <c r="E55">
+        <v>0.0259140074909199</v>
+      </c>
+      <c r="F55">
+        <v>-0.04695784582774801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1802231723955126</v>
+        <v>0.176443252286584</v>
       </c>
       <c r="C56">
-        <v>0.01842620242600152</v>
+        <v>-0.01916249331773322</v>
       </c>
       <c r="D56">
-        <v>0.005317728643894332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002806811341759857</v>
+      </c>
+      <c r="E56">
+        <v>0.03304644309106188</v>
+      </c>
+      <c r="F56">
+        <v>-0.05397061118520471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04862323997785083</v>
+        <v>0.04586150932722705</v>
       </c>
       <c r="C58">
-        <v>0.005920030570302937</v>
+        <v>0.0004579711298554108</v>
       </c>
       <c r="D58">
-        <v>0.05774144655206925</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07423734721206919</v>
+      </c>
+      <c r="E58">
+        <v>0.03500626875496007</v>
+      </c>
+      <c r="F58">
+        <v>0.03543087408147628</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1639241023037018</v>
+        <v>0.1666540753441623</v>
       </c>
       <c r="C59">
-        <v>0.01475154482112886</v>
+        <v>-0.02306343042963868</v>
       </c>
       <c r="D59">
-        <v>-0.2270985806195255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2184630123588206</v>
+      </c>
+      <c r="E59">
+        <v>-0.04897639797220409</v>
+      </c>
+      <c r="F59">
+        <v>0.03836913592840964</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2379674784535723</v>
+        <v>0.2311928295711307</v>
       </c>
       <c r="C60">
-        <v>0.002151581650354821</v>
+        <v>0.0008682661008493596</v>
       </c>
       <c r="D60">
-        <v>0.04145164181355204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03946524830457837</v>
+      </c>
+      <c r="E60">
+        <v>0.006392910380118998</v>
+      </c>
+      <c r="F60">
+        <v>-0.001901113408594365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.0849335587544757</v>
+        <v>0.07817836761674993</v>
       </c>
       <c r="C61">
-        <v>0.01749441640618652</v>
+        <v>-0.01141672961270927</v>
       </c>
       <c r="D61">
-        <v>0.1031518349004776</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1167251440978318</v>
+      </c>
+      <c r="E61">
+        <v>0.03837976886681203</v>
+      </c>
+      <c r="F61">
+        <v>-0.008566553167957664</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1707322961170389</v>
+        <v>0.1686750490115909</v>
       </c>
       <c r="C62">
-        <v>0.02190038220260731</v>
+        <v>-0.02163399190906395</v>
       </c>
       <c r="D62">
-        <v>0.006885877085454114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00479338495138514</v>
+      </c>
+      <c r="E62">
+        <v>0.03286036280507278</v>
+      </c>
+      <c r="F62">
+        <v>-0.03940832028718513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04257005891315387</v>
+        <v>0.04626183938488094</v>
       </c>
       <c r="C63">
-        <v>0.005727585809637691</v>
+        <v>-0.00174090065629646</v>
       </c>
       <c r="D63">
-        <v>0.04613201195540675</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06020216265483978</v>
+      </c>
+      <c r="E63">
+        <v>0.02503010300018035</v>
+      </c>
+      <c r="F63">
+        <v>-0.001077830112818988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127620288627304</v>
+        <v>0.1107099673992602</v>
       </c>
       <c r="C64">
-        <v>0.01550015213058928</v>
+        <v>-0.01220697164535939</v>
       </c>
       <c r="D64">
-        <v>0.03279579689044688</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04242791987798122</v>
+      </c>
+      <c r="E64">
+        <v>0.02309921778472821</v>
+      </c>
+      <c r="F64">
+        <v>-0.0258825276198347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1428295345241885</v>
+        <v>0.1520881045251975</v>
       </c>
       <c r="C65">
-        <v>0.03470526845311054</v>
+        <v>-0.03506384872336444</v>
       </c>
       <c r="D65">
-        <v>-0.05688080458638654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04687130280479809</v>
+      </c>
+      <c r="E65">
+        <v>0.005927404911554491</v>
+      </c>
+      <c r="F65">
+        <v>-0.04004684982329643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1372641511884429</v>
+        <v>0.1231505717500901</v>
       </c>
       <c r="C66">
-        <v>0.02220179018608139</v>
+        <v>-0.01440885509414261</v>
       </c>
       <c r="D66">
-        <v>0.1242187776794976</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1395563673954501</v>
+      </c>
+      <c r="E66">
+        <v>0.06474734125730625</v>
+      </c>
+      <c r="F66">
+        <v>-0.02607933575285475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06295338044823091</v>
+        <v>0.05614378363886916</v>
       </c>
       <c r="C67">
-        <v>0.005572985521733514</v>
+        <v>-0.003057931534103192</v>
       </c>
       <c r="D67">
-        <v>0.05448501887105142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05654554489185617</v>
+      </c>
+      <c r="E67">
+        <v>0.01753371157910179</v>
+      </c>
+      <c r="F67">
+        <v>0.0356597929095811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1068869255327536</v>
+        <v>0.1161486399441244</v>
       </c>
       <c r="C68">
-        <v>0.02278445489922443</v>
+        <v>-0.03360962706308221</v>
       </c>
       <c r="D68">
-        <v>-0.2674660195485407</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2613125435007377</v>
+      </c>
+      <c r="E68">
+        <v>-0.08817511673200248</v>
+      </c>
+      <c r="F68">
+        <v>-0.001225958321528645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04020455068865515</v>
+        <v>0.03874271763812501</v>
       </c>
       <c r="C69">
-        <v>0.002184396965299242</v>
+        <v>-0.001244694219115198</v>
       </c>
       <c r="D69">
-        <v>0.006217658757311418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.00822938402356002</v>
+      </c>
+      <c r="E69">
+        <v>0.02381561521671921</v>
+      </c>
+      <c r="F69">
+        <v>0.00146792594256236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0659671038223275</v>
+        <v>0.06662585164874686</v>
       </c>
       <c r="C70">
-        <v>-0.02471765652084442</v>
+        <v>0.02710957174461068</v>
       </c>
       <c r="D70">
-        <v>-0.004545199095732588</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02488587552522124</v>
+      </c>
+      <c r="E70">
+        <v>-0.031840128109645</v>
+      </c>
+      <c r="F70">
+        <v>0.1807276522422534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1258309450445545</v>
+        <v>0.1362335146388643</v>
       </c>
       <c r="C71">
-        <v>0.02683768965592705</v>
+        <v>-0.03810151412769019</v>
       </c>
       <c r="D71">
-        <v>-0.2841326468813982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2714060163810289</v>
+      </c>
+      <c r="E71">
+        <v>-0.09780533477885166</v>
+      </c>
+      <c r="F71">
+        <v>-0.006655547778213547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1383451028649472</v>
+        <v>0.1438838689009132</v>
       </c>
       <c r="C72">
-        <v>0.02798293216235994</v>
+        <v>-0.02793634169388566</v>
       </c>
       <c r="D72">
-        <v>0.00562818196906238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.004922859334582596</v>
+      </c>
+      <c r="E72">
+        <v>0.03684164818620046</v>
+      </c>
+      <c r="F72">
+        <v>-0.02959234985983588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2077927276456571</v>
+        <v>0.2051033578021564</v>
       </c>
       <c r="C73">
-        <v>0.01753859391662391</v>
+        <v>-0.01363104920696782</v>
       </c>
       <c r="D73">
-        <v>0.009713902483718919</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01763746566141994</v>
+      </c>
+      <c r="E73">
+        <v>0.06734292762185601</v>
+      </c>
+      <c r="F73">
+        <v>-0.04064084773106186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09378170443756206</v>
+        <v>0.09536389717958503</v>
       </c>
       <c r="C74">
-        <v>0.01441324126936742</v>
+        <v>-0.01409280135353741</v>
       </c>
       <c r="D74">
-        <v>0.01921354805205683</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01708597989079805</v>
+      </c>
+      <c r="E74">
+        <v>0.04455124035930263</v>
+      </c>
+      <c r="F74">
+        <v>-0.0543648903260585</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1335560329781232</v>
+        <v>0.1268292999389061</v>
       </c>
       <c r="C75">
-        <v>0.03052414875826963</v>
+        <v>-0.02915045412235792</v>
       </c>
       <c r="D75">
-        <v>0.03015460194273542</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02844231680208946</v>
+      </c>
+      <c r="E75">
+        <v>0.05686136843061301</v>
+      </c>
+      <c r="F75">
+        <v>-0.02091908976724044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08260315469333712</v>
+        <v>0.09059498975768424</v>
       </c>
       <c r="C77">
-        <v>0.01494518646657075</v>
+        <v>-0.008607393765961298</v>
       </c>
       <c r="D77">
-        <v>0.1001104821004233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1143708841437845</v>
+      </c>
+      <c r="E77">
+        <v>0.04531554630056627</v>
+      </c>
+      <c r="F77">
+        <v>-0.03478840006212112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09926703858284819</v>
+        <v>0.1006742304193459</v>
       </c>
       <c r="C78">
-        <v>0.04402829660683572</v>
+        <v>-0.03853329089772709</v>
       </c>
       <c r="D78">
-        <v>0.1090545642456117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1116552747706105</v>
+      </c>
+      <c r="E78">
+        <v>0.07607916656902357</v>
+      </c>
+      <c r="F78">
+        <v>-0.05010088103268608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.164673544035766</v>
+        <v>0.1631887902715672</v>
       </c>
       <c r="C79">
-        <v>0.02517043019701313</v>
+        <v>-0.02414225423547063</v>
       </c>
       <c r="D79">
-        <v>0.01227033680177404</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01277133003348253</v>
+      </c>
+      <c r="E79">
+        <v>0.04391180804452868</v>
+      </c>
+      <c r="F79">
+        <v>-0.01215574097269962</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08102735158742659</v>
+        <v>0.07916322839666658</v>
       </c>
       <c r="C80">
-        <v>0.001284723868288341</v>
+        <v>0.0008511850255799132</v>
       </c>
       <c r="D80">
-        <v>0.04964180991234144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05421915594792793</v>
+      </c>
+      <c r="E80">
+        <v>0.03237071140340243</v>
+      </c>
+      <c r="F80">
+        <v>0.02481172789563063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1203307957090712</v>
+        <v>0.1175700532677715</v>
       </c>
       <c r="C81">
-        <v>0.03254963258330836</v>
+        <v>-0.03270374069471041</v>
       </c>
       <c r="D81">
-        <v>0.02346644620256307</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01380296096090903</v>
+      </c>
+      <c r="E81">
+        <v>0.054635291928262</v>
+      </c>
+      <c r="F81">
+        <v>-0.0181370210152785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658553710740663</v>
+        <v>0.1655341277221628</v>
       </c>
       <c r="C82">
-        <v>0.02590577513204022</v>
+        <v>-0.02654896866935668</v>
       </c>
       <c r="D82">
-        <v>0.01301882153421829</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.001982795954943386</v>
+      </c>
+      <c r="E82">
+        <v>0.02791054601266897</v>
+      </c>
+      <c r="F82">
+        <v>-0.0821974243702369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06330367487063805</v>
+        <v>0.05751699853705277</v>
       </c>
       <c r="C83">
-        <v>0.005657076581676739</v>
+        <v>-0.003223352353333703</v>
       </c>
       <c r="D83">
-        <v>0.0421138171511515</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04860520985715989</v>
+      </c>
+      <c r="E83">
+        <v>0.001710627104944622</v>
+      </c>
+      <c r="F83">
+        <v>0.03623096103446189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0635233894318835</v>
+        <v>0.0575558107215198</v>
       </c>
       <c r="C84">
-        <v>0.01435156324175921</v>
+        <v>-0.01106328694828373</v>
       </c>
       <c r="D84">
-        <v>0.0660092642590587</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07213136175081741</v>
+      </c>
+      <c r="E84">
+        <v>0.01402583722212283</v>
+      </c>
+      <c r="F84">
+        <v>-0.01627475410079073</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1379025855422502</v>
+        <v>0.1345334540207397</v>
       </c>
       <c r="C85">
-        <v>0.02933506303688073</v>
+        <v>-0.02918446299881667</v>
       </c>
       <c r="D85">
-        <v>0.01580685860511941</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009339362830882849</v>
+      </c>
+      <c r="E85">
+        <v>0.0364107598535269</v>
+      </c>
+      <c r="F85">
+        <v>-0.04781929237502286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012447130796822</v>
+        <v>0.09334020467909795</v>
       </c>
       <c r="C86">
-        <v>-0.00247074221861371</v>
+        <v>0.005783442022860447</v>
       </c>
       <c r="D86">
-        <v>0.00397826932434128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05081444139386694</v>
+      </c>
+      <c r="E86">
+        <v>0.2198229097413726</v>
+      </c>
+      <c r="F86">
+        <v>0.9000127934482066</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09991811795394677</v>
+        <v>0.09386524948814842</v>
       </c>
       <c r="C87">
-        <v>0.02834901060558479</v>
+        <v>-0.01959767642038518</v>
       </c>
       <c r="D87">
-        <v>0.06996289543984689</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09576550385918783</v>
+      </c>
+      <c r="E87">
+        <v>-0.05176244169708463</v>
+      </c>
+      <c r="F87">
+        <v>-0.05376874660767148</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05997999120974581</v>
+        <v>0.06027855566696178</v>
       </c>
       <c r="C88">
-        <v>0.005286752224923928</v>
+        <v>-0.002645791398888546</v>
       </c>
       <c r="D88">
-        <v>0.05445197950832197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04983380442757469</v>
+      </c>
+      <c r="E88">
+        <v>0.02437983102826578</v>
+      </c>
+      <c r="F88">
+        <v>-0.01454024931074852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1177155493873047</v>
+        <v>0.12710229491883</v>
       </c>
       <c r="C89">
-        <v>0.00381566541962169</v>
+        <v>-0.01340929146883046</v>
       </c>
       <c r="D89">
-        <v>-0.2537732484305503</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.244959987817059</v>
+      </c>
+      <c r="E89">
+        <v>-0.09222252325275228</v>
+      </c>
+      <c r="F89">
+        <v>0.008351791171607434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1366128515299527</v>
+        <v>0.1508417944928118</v>
       </c>
       <c r="C90">
-        <v>0.02330013563378487</v>
+        <v>-0.03478705373486846</v>
       </c>
       <c r="D90">
-        <v>-0.2691573185918332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2685708264035973</v>
+      </c>
+      <c r="E90">
+        <v>-0.1137359162265361</v>
+      </c>
+      <c r="F90">
+        <v>0.008487879176737828</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1206406819026018</v>
+        <v>0.1210557024340314</v>
       </c>
       <c r="C91">
-        <v>0.0202902372432403</v>
+        <v>-0.02079796293444186</v>
       </c>
       <c r="D91">
-        <v>-0.008169775450584815</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0162030108535343</v>
+      </c>
+      <c r="E91">
+        <v>0.05381157069510561</v>
+      </c>
+      <c r="F91">
+        <v>0.001478525998965668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1391462005651949</v>
+        <v>0.1468279682659616</v>
       </c>
       <c r="C92">
-        <v>0.01376245923336858</v>
+        <v>-0.02566275250301032</v>
       </c>
       <c r="D92">
-        <v>-0.3047401772663663</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2914323394626452</v>
+      </c>
+      <c r="E92">
+        <v>-0.1023870569558059</v>
+      </c>
+      <c r="F92">
+        <v>0.01961044762728885</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1405741544982225</v>
+        <v>0.1523166606822725</v>
       </c>
       <c r="C93">
-        <v>0.01931404603640491</v>
+        <v>-0.02966873516982584</v>
       </c>
       <c r="D93">
-        <v>-0.2700002872467065</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2651280429044152</v>
+      </c>
+      <c r="E93">
+        <v>-0.07627148084355817</v>
+      </c>
+      <c r="F93">
+        <v>-0.002343326313531956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341692991179784</v>
+        <v>0.127280428821387</v>
       </c>
       <c r="C94">
-        <v>0.02738911106736447</v>
+        <v>-0.02548166524812759</v>
       </c>
       <c r="D94">
-        <v>0.04384058914951543</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03982754564829485</v>
+      </c>
+      <c r="E94">
+        <v>0.05702329579941855</v>
+      </c>
+      <c r="F94">
+        <v>-0.03213430250379684</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.123607627260597</v>
+        <v>0.1267566473249665</v>
       </c>
       <c r="C95">
-        <v>0.009421587374478107</v>
+        <v>-0.003347339953058604</v>
       </c>
       <c r="D95">
-        <v>0.08637046750723232</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09884059320980333</v>
+      </c>
+      <c r="E95">
+        <v>0.05371325486421352</v>
+      </c>
+      <c r="F95">
+        <v>-0.000606798673884904</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1210437537230113</v>
+        <v>0.1145524367619674</v>
       </c>
       <c r="C96">
-        <v>-0.9868913038742894</v>
+        <v>0.9865555474477968</v>
       </c>
       <c r="D96">
-        <v>-0.01331114414833667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05160652607784905</v>
+      </c>
+      <c r="E96">
+        <v>0.05229346788824593</v>
+      </c>
+      <c r="F96">
+        <v>-0.04234278790006391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1940631200910053</v>
+        <v>0.1947156499595617</v>
       </c>
       <c r="C97">
-        <v>-0.005192622323408145</v>
+        <v>0.005589419054395426</v>
       </c>
       <c r="D97">
-        <v>-0.01295688769384505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02097439609672482</v>
+      </c>
+      <c r="E97">
+        <v>0.02137440260451363</v>
+      </c>
+      <c r="F97">
+        <v>0.1178316933449134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1997701879595324</v>
+        <v>0.2066800704593843</v>
       </c>
       <c r="C98">
-        <v>0.01187210712859364</v>
+        <v>-0.007763797656925159</v>
       </c>
       <c r="D98">
-        <v>0.009907523244141838</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0142890432032646</v>
+      </c>
+      <c r="E98">
+        <v>-0.07599774653905568</v>
+      </c>
+      <c r="F98">
+        <v>0.08887836937709223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05543011425479433</v>
+        <v>0.05562280856772665</v>
       </c>
       <c r="C99">
-        <v>-0.001908097173120645</v>
+        <v>0.00413114373967122</v>
       </c>
       <c r="D99">
-        <v>0.02637170105576692</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03845947925358559</v>
+      </c>
+      <c r="E99">
+        <v>0.02167159334748042</v>
+      </c>
+      <c r="F99">
+        <v>-0.003600638359526403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1427186420292098</v>
+        <v>0.1290172422071952</v>
       </c>
       <c r="C100">
-        <v>-0.03859133407866505</v>
+        <v>0.05172475309072327</v>
       </c>
       <c r="D100">
-        <v>0.4034450271511991</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3515742875582671</v>
+      </c>
+      <c r="E100">
+        <v>-0.8866297474474254</v>
+      </c>
+      <c r="F100">
+        <v>0.1466364303990046</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02518477508203186</v>
+        <v>0.02854671260438819</v>
       </c>
       <c r="C101">
-        <v>0.009540194989857241</v>
+        <v>-0.008873381831547168</v>
       </c>
       <c r="D101">
-        <v>0.02487859853645694</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03077161879644885</v>
+      </c>
+      <c r="E101">
+        <v>0.01212714333346304</v>
+      </c>
+      <c r="F101">
+        <v>0.01333943591975266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
